--- a/thresholds/AL/classical-studies/classical-studies-thresholds.xlsx
+++ b/thresholds/AL/classical-studies/classical-studies-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,135 +693,135 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F9" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F10" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G10" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -833,30 +833,30 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -868,30 +868,30 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F13" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -903,208 +903,523 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F14" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E15" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>SZ 13,23</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>69</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,21,31,41</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>163</v>
+      </c>
+      <c r="D20" t="n">
+        <v>141</v>
+      </c>
+      <c r="E20" t="n">
+        <v>119</v>
+      </c>
+      <c r="F20" t="n">
+        <v>102</v>
+      </c>
+      <c r="G20" t="n">
+        <v>85</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>121</v>
+      </c>
+      <c r="F21" t="n">
+        <v>104</v>
+      </c>
+      <c r="G21" t="n">
+        <v>87</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23,33,43</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>165</v>
+      </c>
+      <c r="D22" t="n">
+        <v>143</v>
+      </c>
+      <c r="E22" t="n">
+        <v>121</v>
+      </c>
+      <c r="F22" t="n">
+        <v>104</v>
+      </c>
+      <c r="G22" t="n">
+        <v>87</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CX 31,41,97</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>141</v>
+      </c>
+      <c r="E23" t="n">
+        <v>119</v>
+      </c>
+      <c r="F23" t="n">
+        <v>102</v>
+      </c>
+      <c r="G23" t="n">
+        <v>85</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CY 32,42,98</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>163</v>
+      </c>
+      <c r="D24" t="n">
+        <v>141</v>
+      </c>
+      <c r="E24" t="n">
+        <v>119</v>
+      </c>
+      <c r="F24" t="n">
+        <v>102</v>
+      </c>
+      <c r="G24" t="n">
+        <v>85</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>CZ 33,43,99</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
         <v>163</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>141</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E25" t="n">
         <v>119</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F25" t="n">
         <v>102</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G25" t="n">
         <v>85</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>SX 11,21</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>69</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>100</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>71</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62</v>
+      </c>
+      <c r="F27" t="n">
+        <v>52</v>
+      </c>
+      <c r="G27" t="n">
+        <v>42</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>SZ 13,23</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>52</v>
+      </c>
+      <c r="G28" t="n">
+        <v>42</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
